--- a/statesFile.xlsx
+++ b/statesFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vikas\Code\MySchool_Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F685D8-DAD8-44D2-B41C-CC601201B7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969119A1-63D2-411A-BDD8-760B4E8C211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Country</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Australia</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -370,6 +376,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
